--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531822" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544458" uniqueCount="1249">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -6747,6 +6747,39 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;nm&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;msg&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness</t>
   </si>
 </sst>
 </file>
@@ -9172,24 +9205,24 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s">
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C59" t="s">
         <v>262</v>
@@ -9201,12 +9234,12 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C60" t="s">
         <v>262</v>
@@ -9218,12 +9251,12 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C61" t="s">
         <v>262</v>
@@ -9235,12 +9268,12 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
         <v>262</v>
@@ -9252,29 +9285,29 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -9286,29 +9319,29 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E65" t="s">
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>144</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
@@ -9320,12 +9353,12 @@
         <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
         <v>120</v>
@@ -9337,12 +9370,12 @@
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s">
         <v>120</v>
@@ -9359,7 +9392,7 @@
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
         <v>120</v>
@@ -9371,12 +9404,12 @@
         <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C70" t="s">
         <v>120</v>
@@ -9388,12 +9421,12 @@
         <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
         <v>120</v>
@@ -9405,12 +9438,12 @@
         <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
         <v>120</v>
@@ -9422,12 +9455,12 @@
         <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
         <v>120</v>
@@ -9439,12 +9472,12 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
         <v>120</v>
@@ -9456,12 +9489,12 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
         <v>120</v>
@@ -9473,12 +9506,12 @@
         <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C76" t="s">
         <v>120</v>
@@ -9490,83 +9523,83 @@
         <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
         <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E78" t="s">
         <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C79" t="s">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
         <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E80" t="s">
         <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
         <v>42</v>
@@ -9575,12 +9608,12 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
@@ -9592,12 +9625,12 @@
         <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C83" t="s">
         <v>39</v>
@@ -9609,12 +9642,12 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -9626,29 +9659,29 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E85" t="s">
         <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C86" t="s">
         <v>39</v>
@@ -9660,12 +9693,12 @@
         <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
@@ -9682,7 +9715,7 @@
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C88" t="s">
         <v>39</v>
@@ -9694,12 +9727,12 @@
         <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C89" t="s">
         <v>39</v>
@@ -9711,12 +9744,12 @@
         <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -9728,15 +9761,15 @@
         <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>280</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D91" t="s">
         <v>47</v>
@@ -9745,63 +9778,63 @@
         <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C92" t="s">
         <v>120</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E92" t="s">
         <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E93" t="s">
         <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>349</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
         <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C95" t="s">
         <v>120</v>
@@ -9813,29 +9846,29 @@
         <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E96" t="s">
         <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>343</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
         <v>40</v>
@@ -9847,12 +9880,12 @@
         <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C98" t="s">
         <v>40</v>
@@ -9864,49 +9897,49 @@
         <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>795</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>369</v>
+        <v>991</v>
       </c>
       <c r="C99" t="s">
         <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
         <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>378</v>
+        <v>993</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s">
-        <v>991</v>
+        <v>1041</v>
       </c>
       <c r="C100" t="s">
         <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E100" t="s">
         <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>993</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s">
-        <v>994</v>
+        <v>1042</v>
       </c>
       <c r="C101" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
         <v>42</v>
@@ -9915,12 +9948,12 @@
         <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>1040</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C102" t="s">
         <v>40</v>
@@ -9937,7 +9970,7 @@
     </row>
     <row r="103">
       <c r="B103" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="C103" t="s">
         <v>40</v>
@@ -9949,80 +9982,80 @@
         <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="C104" t="s">
         <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E104" t="s">
         <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>378</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="C105" t="s">
         <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E105" t="s">
         <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
       <c r="C106" t="s">
         <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E106" t="s">
         <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>1066</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s">
-        <v>1072</v>
+        <v>1104</v>
       </c>
       <c r="C107" t="s">
         <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E107" t="s">
         <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>1075</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s">
-        <v>1080</v>
+        <v>1125</v>
       </c>
       <c r="C108" t="s">
         <v>40</v>
@@ -10034,29 +10067,29 @@
         <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>1193</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s">
-        <v>1104</v>
+        <v>1164</v>
       </c>
       <c r="C109" t="s">
         <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E109" t="s">
         <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>1121</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s">
-        <v>1125</v>
+        <v>1186</v>
       </c>
       <c r="C110" t="s">
         <v>40</v>
@@ -10068,32 +10101,32 @@
         <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>1151</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="s">
-        <v>1164</v>
+        <v>1229</v>
       </c>
       <c r="C111" t="s">
         <v>40</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E111" t="s">
         <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>1173</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
         <v>42</v>
@@ -10102,15 +10135,15 @@
         <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>1187</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
         <v>42</v>
@@ -10119,10 +10152,44 @@
         <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="114"/>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="116"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
